--- a/NLS/results_NLS/results_window_concordance_topics_final.xlsx
+++ b/NLS/results_NLS/results_window_concordance_topics_final.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosafilgueira/EPCC/ATI-SE/Humanities/defoe_visualization/NLS/results_NLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E13BE4-AC9A-BC42-9797-14C92AB6D68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79655BE-EC53-D148-A545-4DF7A561FDAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="960" windowWidth="27640" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edinburgh" sheetId="1" r:id="rId1"/>
     <sheet name="scotland" sheetId="2" r:id="rId2"/>
     <sheet name="maid" sheetId="3" r:id="rId3"/>
     <sheet name="woman" sheetId="4" r:id="rId4"/>
+    <sheet name="man" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="377">
   <si>
     <t>date</t>
   </si>
@@ -725,6 +726,435 @@
   </si>
   <si>
     <t>['to', 'the', 'public', 'lawsin', 'being', 'byrlaw', 'orgya', 'law', 'awr', 'in', 'scotland', 'ate', 'made', 'and', 'determined', 'by', 'neighbours', 'eledfed', 'by', 'common', 'consent']</t>
+  </si>
+  <si>
+    <t>alto/188082852.34.xml</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>['selfevident', 'or', 'previously', 'difeovered', 'principles', 'it', 'is', 'well', 'if', 'a', 'man', 'be', 'capable', 'of', 'comprehending', 'the', 'principles', 'and', 'relations', 'of', 'the']</t>
+  </si>
+  <si>
+    <t>['before', 'him', 'in', 'one', 'uninterrupted', 'chain', 'but', 'where', 'is', 'the', 'man', 'who', 'can', 'learn', 'the', 'principles', 'of', 'any', 'science', 'from', 'a']</t>
+  </si>
+  <si>
+    <t>['hitherto', 'adopted', 'we', 'will', 'however', 'venture', 'to', 'affirm', 'that', 'any', 'man', 'of', 'ordinary', 'parts', 'may', 'if', 'he', 'chuffs', 'learn', 'the', 'principles']</t>
+  </si>
+  <si>
+    <t>alto/188082969.34.xml</t>
+  </si>
+  <si>
+    <t>['the', 'evidence', 'arising', 'from', 'the', 'single', 'te', 'ftimony', 'of', 'a', 'man', 'of', 'known', 'veracity', 'will', 'go', 'far', 'to', 'eftabliffi']</t>
+  </si>
+  <si>
+    <t>['called', 'the', 'menage', 'academy', 'figure', 'a', 'drawing', 'of', 'a', 'naked', 'man', 'or', 'woman', 'taken', 'from', 'the', 'life', 'which', 'is', 'usually', 'done']</t>
+  </si>
+  <si>
+    <t>alto/188083063.34.xml</t>
+  </si>
+  <si>
+    <t>['curiam', 'in', 'the', 'engliffi', 'law', 'a', 'writ', 'lying', 'where', 'a', 'man', 'has', 'received', 'or', 'fears', 'false', 'judgment', 'in', 'an', 'inferior', 'court']</t>
+  </si>
+  <si>
+    <t>alto/188083219.34.xml</t>
+  </si>
+  <si>
+    <t>['alluding', 'to', 'that', 'species', 'of', 'earth', 'of', 'which', 'the', 'first', 'man', 'is', 'supposed', 'to', 'have', 'been', 'made', 'adamites', 'in', 'church', 'history']</t>
+  </si>
+  <si>
+    <t>['ceylon', 'on', 'the', 'top', 'of', 'which', 'they', 'believe', 'the', 'first', 'man', 'was', 'created', 'and', 'there', 'is', 'the', 'st', 'ape', 'of', 'a']</t>
+  </si>
+  <si>
+    <t>alto/188083232.34.xml</t>
+  </si>
+  <si>
+    <t>['is', 'that', 'title', 'or', 'defiguation', 'which', 'is', 'given', 'to', 'a', 'man', 'over', 'and', 'above', 'his', 'proper', 'name', 'and', 'firnarae', 'to', 'hew']</t>
+  </si>
+  <si>
+    <t>['follows', 'it', 'thus', 'in', 'the', 'phrase', 'he', 'is', 'an', 'honejl', 'man', 'but', 'a', 'great', 'enthujiafi', 'the', 'word', 'but', 'is', 'an', 'adverfative']</t>
+  </si>
+  <si>
+    <t>['cats', 'represented', 'sometimes', 'like', 'a', 'cat', 'and', 'foinetimes', 'like', 'a', 'man', 'with', 'a', 'cats', 'head', 'i', 'eheatores', 'in', 'roman', 'antiquity', 'a']</t>
+  </si>
+  <si>
+    <t>alto/188083362.34.xml</t>
+  </si>
+  <si>
+    <t>['in', 'the', 'way', 'of', 'conjefture', 'which', 'will', 'never', 'lead', 'any', 'man', 'to', 'truth', 'he', 'had', 'recourse', 'to', 'a', 'subtile', 'elastic', 'scther']</t>
+  </si>
+  <si>
+    <t>['looked', 'upon', 'this', 'attempt', 'as', 'the', 'foible', 'of', 'a', 'great', 'man', 'or', 'at', 'lead', 'as', 'the', 'mod', 'useless', 'part', 'of', 'his']</t>
+  </si>
+  <si>
+    <t>alto/188083388.34.xml</t>
+  </si>
+  <si>
+    <t>['what', 'faculty', 'of', 'the', 'soul', 'the', 'difpofltion', 'arises', 'in', 'mortal', 'man', 'of', 'taking', 'it', 'into', 'his', 'head', 'toadvance', 'new', 'systems', 'with']</t>
+  </si>
+  <si>
+    <t>['and', 'chains', 'and', 'dark', 'chambers', 'arid', 'st', 'raw', 'for', 'what', 'man', 'in', 'the', 'natural', 'hate', 'or', 'course', 'of', 'think', 'ing', 'did']</t>
+  </si>
+  <si>
+    <t>['in', 'law', 'denotes', 'the', 'mutual', 'plighting', 'of', 'troth', 'between', 'a', 'man', 'and', 'a', 'woman', 'to', 'marry', 'each', 'other', 'affiche', 'a', 'term']</t>
+  </si>
+  <si>
+    <t>alto/188083427.34.xml</t>
+  </si>
+  <si>
+    <t>['both', 'sexes', 'are', 'enabled', 'to', 'do', 'certain', 'ads', 'thus', 'a', 'man', 'at', 'twelve', 'years', 'of', 'age', 'ought', 'to', 'take', 'the', 'oath']</t>
+  </si>
+  <si>
+    <t>['foecage', 'voli', 'no', 'age', 'twentyone', 'is', 'called', 'full', 'age', 'a', 'man', 'or', 'voman', 'being', 'then', 'capable', 'of', 'ading', 'for', 'themselves', 'of']</t>
+  </si>
+  <si>
+    <t>['agenda', 'among', 'philosophers', 'and', 'divines', 'signifies', 'the', 'duties', 'which', 'a', 'man', 'lies', 'under', 'an', 'obligation', 'to', 'perform', 'thus', 'we', 'meet', 'with']</t>
+  </si>
+  <si>
+    <t>alto/188083726.34.xml</t>
+  </si>
+  <si>
+    <t>['rising', 'are', 'apt', 'to', 'entangle', 'or', 'choke', 'the', 'beam', 'another', 'man', 'is', 'also', 'neceflary', 'to', 'pulh', 'them', 'off', 'with', 'a', 'pitchfork']</t>
+  </si>
+  <si>
+    <t>['negroes', 'as', 'monders', 'they', 'are', 'the', 'ilfue', 'of', 'a', 'white', 'man', 'and', 'black', 'woman', 'and', 'at', 'a', 'didanee', 'might', 'be', 'taken']</t>
+  </si>
+  <si>
+    <t>alto/188084168.34.xml</t>
+  </si>
+  <si>
+    <t>['between', 'the', 'value', 'of', 'effedls', 'or', 'money', 'due', 'to', 'a', 'man', 'and', 'money', 'due', 'by', 'him', 'when', 'two', 'quantities', 'equal', 'in']</t>
+  </si>
+  <si>
+    <t>['and', 'their', 'amount', 'is', 'nothing', 'thus', 'tool', 'due', 'to', 'a', 'man', 'and', 'i', 'oo', 'due', 'by', 'him', 'balance', 'each', 'other', 'and']</t>
+  </si>
+  <si>
+    <t>alto/188084350.34.xml</t>
+  </si>
+  <si>
+    <t>['the', 'rest', 'found', 'that', 'their', 'ihares', 'amounted', 'to', 'r', 'a', 'man', 'more', 'than', 'if', 'all', 'had', 'paid', 'qu', 'how', 'many', 'were']</t>
+  </si>
+  <si>
+    <t>alto/188084610.34.xml</t>
+  </si>
+  <si>
+    <t>['quantity', 'that', 'will', 'result', 'from', 'this', 'fubflitution', 'will', 'necefiarily', 'have', 'man', 'f', 'r', 'one', 'of', 'its', 'divifors', 'since', 'in', 'this', 'fubflitution']</t>
+  </si>
+  <si>
+    <t>['by', 'which', 'means', 'the', 'goods', 'are', 'divided', 'without', 'partiality', 'each', 'man', 'having', 'the', 'parcel', 'upon', 'which', 'his', 'name', 'is', 'fixed', 'allowances']</t>
+  </si>
+  <si>
+    <t>['name', 'who', 'are', 'represented', 'as', 'governed', 'by', 'a', 'queen', 'no', 'man', 'being', 'permitted', 'to', 'live', 'among', 'them', 'only', 'at', 'a', 'certain']</t>
+  </si>
+  <si>
+    <t>['and', 'fubjedt', 'themselves', 'in', 'civil', 'matters', 'to', 'every', 'ordinance', 'of', 'man', 'for', 'the', 'lords', 'sake', 'they', 'consider', 'the', 'kingdom', 'of', 'christ']</t>
+  </si>
+  <si>
+    <t>alto/188086690.34.xml</t>
+  </si>
+  <si>
+    <t>['than', 'in', 'the', 'flomach', 'but', 'the', 'texture', 'of', 'them', 'in', 'man', 'is', 'not', 'like', 'hairs', 'as', 'they', 'are', 'commonly', 'represented', 'in']</t>
+  </si>
+  <si>
+    <t>alto/188086820.34.xml</t>
+  </si>
+  <si>
+    <t>['the', 'common', 'fern', 'the', 'pancreatic', 'dust', 'is', 'sometimes', 'double', 'in', 'man', 'one', 'lying', 'above', 'the', 'other', 'it', 'is', 'not', 'always', 'of']</t>
+  </si>
+  <si>
+    <t>['of', 'the', 'spleen', 'is', 'not', 'easy', 'to', 'be', 'unfolded', 'in', 'man', 'and', 'it', 'is', 'very', 'different', 'from', 'that', 'of', 'the', 'fplecns']</t>
+  </si>
+  <si>
+    <t>['commonly', 'made', 'its', 'coverings', 'adhere', 'to', 'it', 'so', 'closely', 'in', 'man', 'that', 'it', 'is', 'difficult', 'to', 'distinguish', 'the', 'common', 'from', 'the']</t>
+  </si>
+  <si>
+    <t>['than', 'by', 'the', 'intervention', 'of', 'the', 'omentum', 'and', 'mefocolon', 'in', 'man', 'the', 'substance', 'of', 'the', 'spleen', 'is', 'almost', 'wholly', 'vafcular', 'in']</t>
+  </si>
+  <si>
+    <t>alto/188086846.34.xml</t>
+  </si>
+  <si>
+    <t>['of', 'which', 'it', 'is', 'a', 'continuation', 'and', 'its', 'cavity', 'in', 'man', 'is', 'not', 'uniform', 'but', 'diftinguifted', 'into', 'three', 'portions', 'each', 'of']</t>
+  </si>
+  <si>
+    <t>alto/188087197.34.xml</t>
+  </si>
+  <si>
+    <t>['inferior', 'he', 'superior', 'is', 'the', 'largest', 'and', 'most', 'moveable', 'in', 'man', 'they', 'both', 'unite', 'at', 'eachside', 'of', 'the', 'globe', 'and', 'the']</t>
+  </si>
+  <si>
+    <t>['which', 'by', 'certain', 'springs', 'performs', 'several', 'external', 'fundtions', 'of', 'a', 'man', 'see', 'automaton', 'androlepsy', 'in', 'grecian', 'antiquity', 'an', 'adlion', 'allowed', 'by']</t>
+  </si>
+  <si>
+    <t>alto/188087613.34.xml</t>
+  </si>
+  <si>
+    <t>['christ', 'notwithstanding', 'that', 'they', 'believed', 'him', 'to', 'be', 'a', 'mere', 'man', 'anthropolatria', 'the', 'paying', 'divine', 'honours', 'to', 'a', 'man', 'supposed', 'to']</t>
+  </si>
+  <si>
+    <t>['a', 'mere', 'man', 'anthropolatria', 'the', 'paying', 'divine', 'honours', 'to', 'a', 'man', 'supposed', 'to', 'be', 'the', 'most', 'ancient', 'kind', 'of', 'idolatry', 'anthropology']</t>
+  </si>
+  <si>
+    <t>['palfage', 'of', 'genesis', 'in', 'which', 'it', 'is', 'said', 'god', 'made', 'man', 'after', 'his', 'own', 'image', 'maintained', 'that', 'god', 'had', 'a', 'human']</t>
+  </si>
+  <si>
+    <t>['paflion', 'is', 'aferibed', 'to', 'god', 'which', 'properly', 'belongs', 'only', 'to', 'man', 'anthroposcopy', 'that', 'part', 'of', 'physiognomy', 'which', 'judges', 'of', 'a', 'mans']</t>
+  </si>
+  <si>
+    <t>alto/188087626.34.xml</t>
+  </si>
+  <si>
+    <t>['end', 'of', 'the', 'world', 'he', 'is', 'called', 'in', 'scripture', 'the', 'man', 'of', 'ftn', 'the', 'man', 'of', 'perditi', 'jfj', 'c', 'antichthones', 'in']</t>
+  </si>
+  <si>
+    <t>['he', 'is', 'called', 'in', 'scripture', 'the', 'man', 'of', 'ftn', 'the', 'man', 'of', 'perditi', 'jfj', 'c', 'antichthones', 'in', 'ancient', 'geography', 'an', 'appellation']</t>
+  </si>
+  <si>
+    <t>alto/188087639.34.xml</t>
+  </si>
+  <si>
+    <t>['instead', 'of', 'aristotle', 'and', 'the', 'orator', 'for', 'cicero', 'thus', 'a', 'man', 'is', 'called', 'by', 'the', 'came', 'of', 'his', 'country', 'a', 'german']</t>
+  </si>
+  <si>
+    <t>['of', 'his', 'country', 'a', 'german', 'an', 'italian', 'and', 'a', 'grave', 'man', 'is', 'called', 'a', 'cato', 'and', 'a', 'wife', 'man', 'a', 'solomon']</t>
+  </si>
+  <si>
+    <t>['a', 'grave', 'man', 'is', 'called', 'a', 'cato', 'and', 'a', 'wife', 'man', 'a', 'solomon', 'antrim', 'the', 'most', 'northeast', 'county', 'of', 'ulster', 'in']</t>
+  </si>
+  <si>
+    <t>alto/188087821.34.xml</t>
+  </si>
+  <si>
+    <t>['p', 'o', 'a', 'p', 'p', 'the', 'romanifts', 'it', 'signifies', 'a', 'man', 'who', 'without', 'a', 'legal', 'dispensation', 'forfakes', 'a', 'religious', 'order', 'of']</t>
+  </si>
+  <si>
+    <t>alto/188087834.34.xml</t>
+  </si>
+  <si>
+    <t>['special', 'these', 'are', 'called', 'apf', 'hrive', 'so', 'f', 'fiih', 'bird', 'man', 'city', 'river', 'are', 'common', 'names', 'and', 'so', 'are', 'troot', 'eel']</t>
+  </si>
+  <si>
+    <t>alto/188087964.34.xml</t>
+  </si>
+  <si>
+    <t>['as', 'the', 'doric', 'had', 'been', 'on', 'those', 'of', 'a', 'robust', 'man', 'the', 'capital', 'was', 'adorned', 'with', 'volutes', 'to', 'represent', 'the', 'curls']</t>
+  </si>
+  <si>
+    <t>alto/188088159.34.xml</t>
+  </si>
+  <si>
+    <t>['and', 'compare', 'a', 'column', 'raised', 'on', 'a', 'pedestal', 'to', 'a', 'man', 'mounted', 'on', 'stilts', 'imagining', 'that', 'they', 'were', 'introduced', 'merely', 'from']</t>
+  </si>
+  <si>
+    <t>alto/188088809.34.xml</t>
+  </si>
+  <si>
+    <t>['b', 'i', 'for', 'months', 'they', 'gain', 'i', 'what', 'sharemust', 'each', 'man', 'have', 'a', 'x', 'third', 'term', 'for', 'as', 'lhare', 'b', 'x']</t>
+  </si>
+  <si>
+    <t>alto/188089667.34.xml</t>
+  </si>
+  <si>
+    <t>['diagram', 'they', 'would', 'appear', 'so', 'anomalous', 'and', 'confused', 'that', 'no', 'man', 'in', 'his', 'senses', 'could', 'believe', 'them', 'to', 'be', 'representations', 'of']</t>
+  </si>
+  <si>
+    <t>['those', 'who', 'would', 'rather', 'with', 'the', 'greatest', 'justice', 'charge', 'frail', 'man', 'with', 'ignorance', 'than', 'the', 'almighty', 'with', 'being', 'the', 'author', 'of']</t>
+  </si>
+  <si>
+    <t>alto/188090629.34.xml</t>
+  </si>
+  <si>
+    <t>['by', 'the', 'world', 'but', 'it', 'is', 'justly', 'questioned', 'whether', 'any', 'man', 'ferioufty', 'adopted', 'such', 'a', 'principle', 'these', 'pretensions', 'therefore', 'must', 'be']</t>
+  </si>
+  <si>
+    <t>alto/188090681.34.xml</t>
+  </si>
+  <si>
+    <t>['and', 'so', 'in', 'time', 'it', 'became', 'the', 'power', 'of', 'the', 'man', 'wh', 'is', 'called', 'caufarum', 'negotiorumque', 'audentia', 'cantuarienfis', 'auditor', 'feu', 'officinalis']</t>
+  </si>
+  <si>
+    <t>['berwick', 'the', 'mint', 'and', 'of', 'any', 'money', 'impressed', 'to', 'any', 'man', 'for', 'the', 'kings', 'service', 'auditors', 'collegiate', 'conventual', 'see', 'officers', 'formerly']</t>
+  </si>
+  <si>
+    <t>alto/188090707.34.xml</t>
+  </si>
+  <si>
+    <t>['good', 'omen', 'if', 'a', 'flock', 'of', 'birds', 'came', 'about', 'a', 'man', 'it', 'was', 'a', 'favourable', 'presage', 'but', 'the', 'flight', 'of', 'vultures']</t>
+  </si>
+  <si>
+    <t>alto/188090720.34.xml</t>
+  </si>
+  <si>
+    <t>['hooks', 'fattened', 'at', 'each', 'end', 'of', 'a', 'beam', 'which', 'a', 'man', 'lifted', 'up', 'on', 'his', 'hand', 'in', 'many', 'parts', 'of', 'england']</t>
+  </si>
+  <si>
+    <t>alto/188090733.34.xml</t>
+  </si>
+  <si>
+    <t>['andfruits', 'are', 'gathered', 'inautumn', 'is', 'represented', 'in', 'painting', 'by', 'a', 'man', 'at', 'perfect', 'age', 'clothed', 'like', 'the', 'vernal', 'and', 'likewise', 'girded']</t>
+  </si>
+  <si>
+    <t>alto/188090863.34.xml</t>
+  </si>
+  <si>
+    <t>['cut', 'into', 'as', 'many', 'heaps', 'as', 'there', 'are', 'players', 'every', 'man', 'lays', 'as', 'much', 'money', 'on', 'his', 'own', 'card', 'as', 'he']</t>
+  </si>
+  <si>
+    <t>alto/188090876.34.xml</t>
+  </si>
+  <si>
+    <t>['headlong', 'it', 'had', 'ftiarp', 'spikes', 'at', 'the', 'top', 'that', 'no', 'man', 'might', 'escape', 'out', 'and', 'others', 'at', 'the', 'bottom', 'to', 'pierce']</t>
+  </si>
+  <si>
+    <t>alto/188090889.34.xml</t>
+  </si>
+  <si>
+    <t>['and', 'attribute', 'in', 'the', 'second', 'for', 'example', 'bar', 'every', 'wicked', 'man', 'is', 'miserable', 'ba', 'all', 'tyrants', 'are', 'wicked', 'men', 'ra', 'therefore']</t>
+  </si>
+  <si>
+    <t>['in', 'heraldry', 'is', 'when', 'the', 'coats', 'of', 'arms', 'of', 'a', 'man', 'and', 'his', 'wife', 'are', 'borne', 'per', 'pale', 'in', 'the', 'same']</t>
+  </si>
+  <si>
+    <t>['quarrels', 'either', 'in', 'courts', 'or', 'elsewhere', 'in', 'the', 'country', 'a', 'man', 'cannot', 'be', 'adjudged', 'a', 'barrator', 'for', 'bringing', 'any', 'number', 'of']</t>
+  </si>
+  <si>
+    <t>['in', 'e', 'long', 'and', 's', 'lat', 'batchelor', 'or', 'bachelor', 'a', 'man', 'who', 'still', 'continues', 'in', 'the', 'state', 'of', 'celibacy', 'or', 'who']</t>
+  </si>
+  <si>
+    <t>['of', 'the', 'monaftical', 'life', 'without', 'observing', 'celibacy', 'and', 'maintained', 'that', 'man', 'could', 'become', 'as', 'perfect', 'in', 'this', 'life', 'as', 'he', 'hall']</t>
+  </si>
+  <si>
+    <t>alto/188091565.34.xml</t>
+  </si>
+  <si>
+    <t>['between', 'two', 'rows', 'of', 'flakes', 'about', 'the', 'height', 'of', 'a', 'man', 'and', 'four', 'or', 'five', 'feet', 'asunder', 'used', 'particularly', 'at', 'the']</t>
+  </si>
+  <si>
+    <t>['no', 'flank', 'it', 'is', 'also', 'a', 'general', 'rule', 'that', 'a', 'man', 'ffiould', 'not', 'buy', 'a', 'lightbodied', 'horse', 'and', 'one', 'that', 'is']</t>
+  </si>
+  <si>
+    <t>alto/188091708.34.xml</t>
+  </si>
+  <si>
+    <t>['the', 'effedts', 'is', 'what', 'merchants', 'call', 'neat', 'jlock', 'when', 'a', 'man', 'begins', 'trade', 'the', 'inventory', 'must', 'be', 'gathered', 'from', 'a', 'survey']</t>
+  </si>
+  <si>
+    <t>alto/188091864.34.xml</t>
+  </si>
+  <si>
+    <t>['draw', 'on', 'partner', 'charge', 'cash', 'or', 'e', 'f', 'viz', 'the', 'man', 'you', 'deliver', 'the', 'bill', 'to', 'dr', 'to', 'partner', 'bis', 'accompt']</t>
+  </si>
+  <si>
+    <t>['boroughhead', 'or', 'headborough', 'called', 'also', 'boroughholder', 'or', 'burlholder', 'the', 'chief', 'man', 'of', 'the', 'decenna', 'or', 'hundred', 'chofea', 'to', 'speak', 'and', 'act']</t>
+  </si>
+  <si>
+    <t>alto/188092436.34.xml</t>
+  </si>
+  <si>
+    <t>['ones', 'from', 'the', 'salutary', 'it', 'is', 'the', 'duty', 'of', 'every', 'man', 'to', 'point', 'out', 'the', 'remedy', 'for', 'calamities', 'of', 'this', 'kind']</t>
+  </si>
+  <si>
+    <t>alto/188092839.34.xml</t>
+  </si>
+  <si>
+    <t>['his', 'first', 'argument', 'for', 'the', 'coitus', 'of', 'plants', 'refers', 'every', 'man', 'to', 'the', 'evidences', 'of', 'his', 'senses', 'do', 'we', 'not', 'see']</t>
+  </si>
+  <si>
+    <t>alto/188092852.34.xml</t>
+  </si>
+  <si>
+    <t>['definition', 'of', 'life', 'they', 'fpmiancoujly', 'propel', 'humours', 'strange', 'that', 'a', 'man', 'of', 'linnaeuss', 'capacity', 'or', 'indeed', 'of', 'any', 'capacity', 'at', 'all']</t>
+  </si>
+  <si>
+    <t>['not', 'the', 'name', 'of', 'argument', 'we', 'are', 'afraid', 'that', 'every', 'man', 'of', 'common', 'sense', 'will', 'conclude', 'that', 'they', 'never', 'were', 'endowed']</t>
+  </si>
+  <si>
+    <t>alto/188092865.34.xml</t>
+  </si>
+  <si>
+    <t>['to', 'this', 'day', 'it', 'remains', 'a', 'very', 'doubtful', 'point', 'whether', 'man', 'and', 'most', 'quadrupedes', 'derive', 'their', 'existence', 'from', 'the', 'same', 'source']</t>
+  </si>
+  <si>
+    <t>['render', 'the', 'fubjeft', 'ridiculous', 'try', 'puffiing', 'them', 'too', 'far', 'no', 'man', 'ever', 'blundered', 'more', 'remarkably', 'in', 'this', 'refpedt', 'than', 'linnaeus', 'he']</t>
+  </si>
+  <si>
+    <t>alto/188092878.34.xml</t>
+  </si>
+  <si>
+    <t>['and', 'the', 'poterium', 'to', 'the', 'moncecia', 'polyandria', 'now', 'let', 'any', 'man', 'seriously', 'consider', 'the', 'unavoidable', 'consequences', 'that', 'would', 'follow', 'on', 'the']</t>
+  </si>
+  <si>
+    <t>['with', 'any', 'deg', 'yee', 'of', 'candor', 'upon', 'hermaphrodite', 'flowers', 'no', 'man', 'can', 'determine', 'with']</t>
+  </si>
+  <si>
+    <t>alto/188092917.34.xml</t>
+  </si>
+  <si>
+    <t>['have', 'the', 'lead', 'tendency', 'to', 'aflift', 'the', 'botanic', 'student', 'a', 'man', 'would', 'not', 'naturally', 'expert', 'to', 'meet', 'with', 'disgusting', 'strokes', 'of']</t>
+  </si>
+  <si>
+    <t>alto/188092930.34.xml</t>
+  </si>
+  <si>
+    <t>['recompence', 'or', 'amends', 'thus', 'manbote', 'is', 'a', 'cbmpenfation', 'for', 'a', 'man', 'slain', 'there', 'are', 'likewise', 'housebote', 'and', 'ploughbote', 'privileges', 'to', 'tenants']</t>
+  </si>
+  <si>
+    <t>alto/188093021.34.xml</t>
+  </si>
+  <si>
+    <t>['wood', 'or', 'trunk', 'which', 'was', 'before', 'the', 'thickness', 'of', 'a', 'man', 'is', 'scarce', 'left', 'equal', 'to', 'that', 'of', 'his', 'leg', 'this']</t>
+  </si>
+  <si>
+    <t>['it', 'from', 'hiding', 'backwards', 'breastplough', 'one', 'so', 'fafliioned', 'that', 'a', 'man', 'may', 'hove', 'it', 'before', 'him', 'breastwork', 'the', 'same', 'with', 'parapet']</t>
+  </si>
+  <si>
+    <t>alto/188093112.34.xml</t>
+  </si>
+  <si>
+    <t>['a', 'steel', 'handmill', 'will', 'by', 'the', 'help', 'of', 'only', 'one', 'man', 'grind', 'six', 'or', 'eight', 'bushels', 'in', 'an', 'hour', 'and', 'will']</t>
+  </si>
+  <si>
+    <t>['first', 'entrance', 'but', 'was', 'to', 'leap', 'over', 'it', 'bridegroom', 'a', 'man', 'newly', 'married', 'the', 'spouse', 'of', 'the', 'bride', 'the', 'spartan', 'bridegrooms']</t>
+  </si>
+  <si>
+    <t>alto/188093242.34.xml</t>
+  </si>
+  <si>
+    <t>['hath', 'about', 'twelve', 'or', 'fifteen', 'benches', 'for', 'the', 'rowers', 'one', 'man', 'to', 'a', 'bench', 'all', 'the', 'hands', 'aboard', 'are', 'soldiers', 'and']</t>
+  </si>
+  <si>
+    <t>['a', 'bench', 'all', 'the', 'hands', 'aboard', 'are', 'soldiers', 'and', 'each', 'man', 'hath', 'his', 'mufquet', 'lying', 'ready', 'under', 'his', 'oar', 'brigg', 'a']</t>
+  </si>
+  <si>
+    <t>alto/188093294.34.xml</t>
+  </si>
+  <si>
+    <t>['according', 'to', 'the', 'laws', 'of', 'moses', 'the', 'brother', 'of', 'a', 'man', 'who', 'died', 'without', 'children', 'was', 'obliged', 'to', 'marry', 'the', 'widow']</t>
+  </si>
+  <si>
+    <t>['because', 'usually', 'fashioned', 'like', 'the', 'mouth', 'or', 'face', 'of', 'a', 'man', 'or', 'other', 'animal', 'bucentaur', 'a', 'galeas', 'or', 'large', 'galley', 'of']</t>
+  </si>
+  <si>
+    <t>['by', 'the', 'confusion', 'of', 'species', 'that', 'is', 'to', 'say', 'a', 'man', 'or', 'woman', 'with', 'a', 'brute', 'beast', 'or', 'sexes', 'as', 'a']</t>
+  </si>
+  <si>
+    <t>['or', 'woman', 'with', 'a', 'brute', 'beast', 'or', 'sexes', 'as', 'a', 'man', 'with', 'a', 'man', 'or', 'man', 'unnaturally', 'with', 'a', 'woman', 'it']</t>
+  </si>
+  <si>
+    <t>['a', 'brute', 'beast', 'or', 'sexes', 'as', 'a', 'man', 'with', 'a', 'man', 'or', 'man', 'unnaturally', 'with', 'a', 'woman', 'it', 'is', 'said', 'this']</t>
+  </si>
+  <si>
+    <t>['beast', 'or', 'sexes', 'as', 'a', 'man', 'with', 'a', 'man', 'or', 'man', 'unnaturally', 'with', 'a', 'woman', 'it', 'is', 'said', 'this', 'sin', 'against']</t>
+  </si>
+  <si>
+    <t>alto/188093437.34.xml</t>
+  </si>
+  <si>
+    <t>['anirals', 'they', 'threw', 'upon', 'the', 'pile', 'we', 'seldom', 'find', 'a', 'man', 'of', 'quality', 'copfumed', 'without', 'a', 'number', 'of', 'slaves', 'and', 'captives']</t>
+  </si>
+  <si>
+    <t>['this', 'art', 'without', 'a', 'licence', 'in', 'form', 'which', 'gave', 'the', 'man', 'upon', 'evidence', 'of', 'his', 'abilities', 'a', 'power', 'to', 'kill', 'meat']</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -4853,4 +5283,2207 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F648D2-F366-254A-9BAA-A2BEBD010C32}">
+  <dimension ref="A1:G95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="142.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1771</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1771</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1771</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1771</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1771</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1771</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1771</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1771</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1771</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1771</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1771</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1771</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1771</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1771</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1771</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1771</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1771</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1771</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1771</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1771</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1771</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1771</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1771</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1771</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1771</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1771</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1771</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1771</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1771</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1771</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1771</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1771</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1771</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1771</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>282</v>
+      </c>
+      <c r="F35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1771</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1771</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1771</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>287</v>
+      </c>
+      <c r="F38" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1771</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>287</v>
+      </c>
+      <c r="F39" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1771</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>287</v>
+      </c>
+      <c r="F40" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1771</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1771</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1771</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>292</v>
+      </c>
+      <c r="F43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1771</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" t="s">
+        <v>235</v>
+      </c>
+      <c r="G44" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1771</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>295</v>
+      </c>
+      <c r="F45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1771</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1771</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>299</v>
+      </c>
+      <c r="F47" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1771</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>301</v>
+      </c>
+      <c r="F48" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1771</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>303</v>
+      </c>
+      <c r="F49" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1771</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>305</v>
+      </c>
+      <c r="F50" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1771</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>307</v>
+      </c>
+      <c r="F51" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1771</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" t="s">
+        <v>235</v>
+      </c>
+      <c r="G52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1771</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>309</v>
+      </c>
+      <c r="F53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1771</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>312</v>
+      </c>
+      <c r="F54" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1771</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>314</v>
+      </c>
+      <c r="F55" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1771</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>314</v>
+      </c>
+      <c r="F56" t="s">
+        <v>235</v>
+      </c>
+      <c r="G56" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1771</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F57" t="s">
+        <v>235</v>
+      </c>
+      <c r="G57" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1771</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>319</v>
+      </c>
+      <c r="F58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1771</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>321</v>
+      </c>
+      <c r="F59" t="s">
+        <v>235</v>
+      </c>
+      <c r="G59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1771</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>323</v>
+      </c>
+      <c r="F60" t="s">
+        <v>235</v>
+      </c>
+      <c r="G60" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1771</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>325</v>
+      </c>
+      <c r="F61" t="s">
+        <v>235</v>
+      </c>
+      <c r="G61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1771</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>327</v>
+      </c>
+      <c r="F62" t="s">
+        <v>235</v>
+      </c>
+      <c r="G62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1771</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F63" t="s">
+        <v>235</v>
+      </c>
+      <c r="G63" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1771</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>183</v>
+      </c>
+      <c r="F64" t="s">
+        <v>235</v>
+      </c>
+      <c r="G64" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1771</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" t="s">
+        <v>235</v>
+      </c>
+      <c r="G65" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1771</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" t="s">
+        <v>235</v>
+      </c>
+      <c r="G66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1771</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>333</v>
+      </c>
+      <c r="F67" t="s">
+        <v>235</v>
+      </c>
+      <c r="G67" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1771</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" t="s">
+        <v>235</v>
+      </c>
+      <c r="G68" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1771</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>336</v>
+      </c>
+      <c r="F69" t="s">
+        <v>235</v>
+      </c>
+      <c r="G69" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1771</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>338</v>
+      </c>
+      <c r="F70" t="s">
+        <v>235</v>
+      </c>
+      <c r="G70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1771</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>208</v>
+      </c>
+      <c r="F71" t="s">
+        <v>235</v>
+      </c>
+      <c r="G71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1771</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>341</v>
+      </c>
+      <c r="F72" t="s">
+        <v>235</v>
+      </c>
+      <c r="G72" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1771</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>343</v>
+      </c>
+      <c r="F73" t="s">
+        <v>235</v>
+      </c>
+      <c r="G73" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1771</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>345</v>
+      </c>
+      <c r="F74" t="s">
+        <v>235</v>
+      </c>
+      <c r="G74" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1771</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>345</v>
+      </c>
+      <c r="F75" t="s">
+        <v>235</v>
+      </c>
+      <c r="G75" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1771</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>348</v>
+      </c>
+      <c r="F76" t="s">
+        <v>235</v>
+      </c>
+      <c r="G76" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1771</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>348</v>
+      </c>
+      <c r="F77" t="s">
+        <v>235</v>
+      </c>
+      <c r="G77" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1771</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>351</v>
+      </c>
+      <c r="F78" t="s">
+        <v>235</v>
+      </c>
+      <c r="G78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1771</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>351</v>
+      </c>
+      <c r="F79" t="s">
+        <v>235</v>
+      </c>
+      <c r="G79" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1771</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>354</v>
+      </c>
+      <c r="F80" t="s">
+        <v>235</v>
+      </c>
+      <c r="G80" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1771</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81" t="s">
+        <v>235</v>
+      </c>
+      <c r="G81" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1771</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>358</v>
+      </c>
+      <c r="F82" t="s">
+        <v>235</v>
+      </c>
+      <c r="G82" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1771</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" t="s">
+        <v>235</v>
+      </c>
+      <c r="G83" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1771</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>361</v>
+      </c>
+      <c r="F84" t="s">
+        <v>235</v>
+      </c>
+      <c r="G84" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1771</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>218</v>
+      </c>
+      <c r="F85" t="s">
+        <v>235</v>
+      </c>
+      <c r="G85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1771</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>364</v>
+      </c>
+      <c r="F86" t="s">
+        <v>235</v>
+      </c>
+      <c r="G86" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1771</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>364</v>
+      </c>
+      <c r="F87" t="s">
+        <v>235</v>
+      </c>
+      <c r="G87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1771</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>367</v>
+      </c>
+      <c r="F88" t="s">
+        <v>235</v>
+      </c>
+      <c r="G88" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1771</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>225</v>
+      </c>
+      <c r="F89" t="s">
+        <v>235</v>
+      </c>
+      <c r="G89" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1771</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>227</v>
+      </c>
+      <c r="F90" t="s">
+        <v>235</v>
+      </c>
+      <c r="G90" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1771</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>227</v>
+      </c>
+      <c r="F91" t="s">
+        <v>235</v>
+      </c>
+      <c r="G91" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1771</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>227</v>
+      </c>
+      <c r="F92" t="s">
+        <v>235</v>
+      </c>
+      <c r="G92" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1771</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>227</v>
+      </c>
+      <c r="F93" t="s">
+        <v>235</v>
+      </c>
+      <c r="G93" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1771</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>374</v>
+      </c>
+      <c r="F94" t="s">
+        <v>235</v>
+      </c>
+      <c r="G94" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1771</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>230</v>
+      </c>
+      <c r="F95" t="s">
+        <v>235</v>
+      </c>
+      <c r="G95" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>